--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ipb1-30" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>reactor</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>200-350 qpow step runs</t>
+  </si>
+  <si>
+    <t>IPB1-Core_Bypass_ Seq_ 10W-60W_100 ns_300VDC__1-20-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB1-q-ex-480steps_day-01.csv</t>
+  </si>
+  <si>
+    <t>efficiency measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google q-exitation of 480 steps </t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -941,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,10 +971,11 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,10 +1007,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1025,11 +1044,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0.86</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1060,11 +1082,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0.86</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1095,11 +1120,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0.86</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1158,14 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>0.86</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1165,11 +1196,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0.86</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1200,11 +1234,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0.86</v>
+      </c>
+      <c r="L7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1235,11 +1272,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0.86</v>
+      </c>
+      <c r="L8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1270,11 +1310,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0.86</v>
+      </c>
+      <c r="L9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1305,8 +1348,87 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0.86</v>
+      </c>
+      <c r="L10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1202017</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1212017</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>reactor</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>IPB1-q-ex-240-1_day-01.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google q-exitation of 240 steps </t>
+  </si>
+  <si>
+    <t>DC-excitation_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -956,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,19 +1179,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>11112016</v>
+        <v>12202016</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1194,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0.86</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1211,16 +1220,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>11122016</v>
+        <v>11112016</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1238,7 +1247,7 @@
         <v>0.86</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1246,19 +1255,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>1052016</v>
+        <v>11122016</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1276,7 +1285,7 @@
         <v>0.86</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1287,16 +1296,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>1112017</v>
+        <v>1052016</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1314,7 +1323,7 @@
         <v>0.86</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,19 +1331,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>1182017</v>
+        <v>1112017</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1352,7 +1361,7 @@
         <v>0.86</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1363,16 +1372,16 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>1202017</v>
+        <v>1182017</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1390,7 +1399,7 @@
         <v>0.86</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1401,16 +1410,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>1212017</v>
+        <v>1202017</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1428,7 +1437,83 @@
         <v>0.86</v>
       </c>
       <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1212017</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.86</v>
+      </c>
+      <c r="L13" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1232017</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="270" windowWidth="18960" windowHeight="11865"/>
+    <workbookView xWindow="1545" yWindow="-105" windowWidth="18960" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-30" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>reactor</t>
   </si>
@@ -40,9 +40,6 @@
     <t>endOffset</t>
   </si>
   <si>
-    <t>isHe</t>
-  </si>
-  <si>
     <t>isDC</t>
   </si>
   <si>
@@ -137,6 +134,51 @@
   </si>
   <si>
     <t>DC-excitation_day-01.csv</t>
+  </si>
+  <si>
+    <t>110216</t>
+  </si>
+  <si>
+    <t>110416</t>
+  </si>
+  <si>
+    <t>110816</t>
+  </si>
+  <si>
+    <t>110916</t>
+  </si>
+  <si>
+    <t>122016</t>
+  </si>
+  <si>
+    <t>111116</t>
+  </si>
+  <si>
+    <t>111216</t>
+  </si>
+  <si>
+    <t>010517</t>
+  </si>
+  <si>
+    <t>011117</t>
+  </si>
+  <si>
+    <t>011817</t>
+  </si>
+  <si>
+    <t>012017</t>
+  </si>
+  <si>
+    <t>012117</t>
+  </si>
+  <si>
+    <t>012317</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
@@ -621,8 +663,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -967,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,30 +1053,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>11022016</v>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1047,8 +1090,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>53</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1057,21 +1100,21 @@
         <v>0.86</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>11042016</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1085,8 +1128,8 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>53</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1095,21 +1138,21 @@
         <v>0.86</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>11082016</v>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -1123,8 +1166,8 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>53</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1133,21 +1176,21 @@
         <v>0.86</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5">
-        <v>11092016</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -1161,8 +1204,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1171,21 +1214,21 @@
         <v>0.86</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>12202016</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>22</v>
@@ -1199,8 +1242,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="I6" t="s">
+        <v>53</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1209,21 +1252,21 @@
         <v>0.86</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>11112016</v>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -1237,8 +1280,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="I7" t="s">
+        <v>53</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1247,21 +1290,21 @@
         <v>0.86</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>11122016</v>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -1275,8 +1318,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
+      <c r="I8" t="s">
+        <v>53</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1285,21 +1328,21 @@
         <v>0.86</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1052016</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
       <c r="E9">
         <v>48</v>
@@ -1313,8 +1356,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>53</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1323,21 +1366,21 @@
         <v>0.86</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>1112017</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>58</v>
@@ -1351,8 +1394,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>1</v>
+      <c r="I10" t="s">
+        <v>53</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1361,21 +1404,21 @@
         <v>0.86</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11">
-        <v>1182017</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1389,8 +1432,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>53</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1399,21 +1442,21 @@
         <v>0.86</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>1202017</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1427,8 +1470,8 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="I12" t="s">
+        <v>53</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1437,21 +1480,21 @@
         <v>0.86</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>1212017</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1465,8 +1508,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="I13" t="s">
+        <v>53</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1475,21 +1518,21 @@
         <v>0.86</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>1232017</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -1503,8 +1546,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="I14" t="s">
+        <v>53</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1513,7 +1556,7 @@
         <v>0.86</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="-105" windowWidth="18960" windowHeight="11865"/>
+    <workbookView xWindow="1545" yWindow="-105" windowWidth="23100" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-30" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>reactor</t>
   </si>
@@ -109,9 +109,6 @@
     <t>IPB1_q-cali2_day-01.csv</t>
   </si>
   <si>
-    <t>200-350 qpow step runs</t>
-  </si>
-  <si>
     <t>IPB1-Core_Bypass_ Seq_ 10W-60W_100 ns_300VDC__1-20-17_day-01.csv</t>
   </si>
   <si>
@@ -179,6 +176,33 @@
   </si>
   <si>
     <t>gas</t>
+  </si>
+  <si>
+    <t>2017-01-27-v183_30b_He</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>012717</t>
+  </si>
+  <si>
+    <t>ipb1-he-q-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>200-400 qpow step runs</t>
+  </si>
+  <si>
+    <t>test_day-01.csv</t>
+  </si>
+  <si>
+    <t>test output</t>
+  </si>
+  <si>
+    <t>test_day-02.csv</t>
+  </si>
+  <si>
+    <t>200-350 qpow step runs-eliminate 350c</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,9 +1049,10 @@
     <col min="9" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,19 +1078,22 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1091,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1103,7 +1131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1129,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1141,7 +1169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1167,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1179,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1205,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1217,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1225,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>22</v>
@@ -1243,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1255,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1281,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1293,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1319,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1331,7 +1359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1357,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1369,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1395,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1407,7 +1435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1430,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1442,10 +1470,10 @@
         <v>0.86</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1453,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1471,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1480,10 +1508,10 @@
         <v>0.86</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1491,10 +1519,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1509,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1518,10 +1546,10 @@
         <v>0.86</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1529,10 +1557,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -1547,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1556,7 +1584,121 @@
         <v>0.86</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="-105" windowWidth="23100" windowHeight="11865"/>
+    <workbookView xWindow="-2415" yWindow="-285" windowWidth="23100" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-30" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>reactor</t>
   </si>
@@ -203,13 +203,34 @@
   </si>
   <si>
     <t>200-350 qpow step runs-eliminate 350c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the same run and also the same result as 110916 </t>
+  </si>
+  <si>
+    <t>the same run and also the same result as 011817</t>
+  </si>
+  <si>
+    <t>2017-01-30-v184_30b_He</t>
+  </si>
+  <si>
+    <t>013017</t>
+  </si>
+  <si>
+    <t>ipb1-he_DC-200-300day-01.csv</t>
+  </si>
+  <si>
+    <t>dc-he-200-300</t>
+  </si>
+  <si>
+    <t>if resistance changes after time period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +362,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,9 +730,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1032,676 +1079,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>0.86</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.86</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0.86</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>23</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0.86</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>0.86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>16</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.86</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>48</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>51</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.86</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>58</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>63</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.86</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0.86</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>9</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.86</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>13</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.86</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>17</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>0.86</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <v>0.86</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="M15" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>21</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>21</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>0.86</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>22</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>22</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>0.86</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>reactor</t>
   </si>
@@ -224,13 +224,28 @@
   </si>
   <si>
     <t>if resistance changes after time period</t>
+  </si>
+  <si>
+    <t>013117</t>
+  </si>
+  <si>
+    <t>ipb1-he_DC-200-300-2_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipb1-h2-dc-cali_day-01.csv</t>
+  </si>
+  <si>
+    <t>020117</t>
+  </si>
+  <si>
+    <t>google run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +399,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -730,13 +751,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1079,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1798,6 +1821,88 @@
         <v>69</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2415" yWindow="-285" windowWidth="23100" windowHeight="11865"/>
+    <workbookView xWindow="-2415" yWindow="-285" windowWidth="28215" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-30" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>reactor</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>google run</t>
+  </si>
+  <si>
+    <t>ipb1-h2-dc-ex_day-01.csv</t>
+  </si>
+  <si>
+    <t>020517</t>
+  </si>
+  <si>
+    <t>termRes</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1120,12 +1129,13 @@
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,13 +1170,16 @@
         <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,11 +1213,15 @@
       <c r="K2" s="1">
         <v>0.86</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <f>1/0.625</f>
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,11 +1255,15 @@
       <c r="K3" s="1">
         <v>0.86</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L21" si="0">1/0.625</f>
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,11 +1297,15 @@
       <c r="K4" s="1">
         <v>0.86</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1314,11 +1339,15 @@
       <c r="K5" s="4">
         <v>0.86</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1352,14 +1381,18 @@
       <c r="K6" s="4">
         <v>0.86</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1393,11 +1426,15 @@
       <c r="K7" s="1">
         <v>0.86</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1431,11 +1468,15 @@
       <c r="K8" s="1">
         <v>0.86</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,11 +1510,15 @@
       <c r="K9" s="1">
         <v>0.86</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1507,11 +1552,15 @@
       <c r="K10" s="1">
         <v>0.86</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1545,11 +1594,15 @@
       <c r="K11" s="4">
         <v>0.86</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1583,11 +1636,15 @@
       <c r="K12" s="1">
         <v>0.86</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1621,11 +1678,15 @@
       <c r="K13" s="1">
         <v>0.86</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1659,11 +1720,15 @@
       <c r="K14" s="1">
         <v>0.86</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1697,14 +1762,18 @@
       <c r="K15" s="4">
         <v>0.86</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1738,11 +1807,15 @@
       <c r="K16" s="1">
         <v>0.86</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1776,11 +1849,15 @@
       <c r="K17" s="1">
         <v>0.86</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1814,14 +1891,18 @@
       <c r="K18" s="4">
         <v>0.86</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1855,14 +1936,18 @@
       <c r="K19" s="4">
         <v>0.86</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1896,11 +1981,54 @@
       <c r="K20" s="6">
         <v>0.86</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>69</v>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2415" yWindow="-285" windowWidth="28215" windowHeight="11865"/>
+    <workbookView xWindow="945" yWindow="-195" windowWidth="28215" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-30" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>reactor</t>
   </si>
@@ -248,6 +248,30 @@
   </si>
   <si>
     <t>termRes</t>
+  </si>
+  <si>
+    <t>012517</t>
+  </si>
+  <si>
+    <t>IPB1-q-ex-480_day-01.csv</t>
+  </si>
+  <si>
+    <t>get the qkhz</t>
+  </si>
+  <si>
+    <t>020717</t>
+  </si>
+  <si>
+    <t>ipb1-h2-dct_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>dc-h2-temp</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,13 +1153,13 @@
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="13" width="8.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,13 +1197,16 @@
         <v>77</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1214,14 +1241,16 @@
         <v>0.86</v>
       </c>
       <c r="L2" s="1">
-        <f>1/0.625</f>
-        <v>1.6</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>174</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,14 +1285,16 @@
         <v>0.86</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L21" si="0">1/0.625</f>
-        <v>1.6</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>174</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1298,14 +1329,16 @@
         <v>0.86</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M4" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>174</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1339,15 +1372,17 @@
       <c r="K5" s="4">
         <v>0.86</v>
       </c>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>174</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1381,18 +1416,20 @@
       <c r="K6" s="4">
         <v>0.86</v>
       </c>
-      <c r="L6" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>180</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1427,14 +1464,16 @@
         <v>0.86</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>174</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,14 +1508,16 @@
         <v>0.86</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M8" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>174</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1511,14 +1552,16 @@
         <v>0.86</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M9" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>180</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1553,14 +1596,16 @@
         <v>0.86</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M10" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>180</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1594,15 +1639,17 @@
       <c r="K11" s="4">
         <v>0.86</v>
       </c>
-      <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>182</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1637,14 +1684,16 @@
         <v>0.86</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M12" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>182</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1679,14 +1728,16 @@
         <v>0.86</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M13" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>182</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1721,14 +1772,16 @@
         <v>0.86</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M14" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>182</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1762,18 +1815,20 @@
       <c r="K15" s="4">
         <v>0.86</v>
       </c>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>183</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1808,14 +1863,16 @@
         <v>0.86</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M16" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>182</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1850,14 +1907,16 @@
         <v>0.86</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M17" s="1" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>182</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1891,18 +1950,20 @@
       <c r="K18" s="4">
         <v>0.86</v>
       </c>
-      <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="L18" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>184</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1936,18 +1997,20 @@
       <c r="K19" s="4">
         <v>0.86</v>
       </c>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>184</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1982,14 +2045,16 @@
         <v>0.86</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M20" s="6" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>184</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2024,11 +2089,104 @@
         <v>0.86</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="M21" s="6" t="s">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>184</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>184</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>185</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
   <si>
     <t>reactor</t>
   </si>
@@ -272,6 +272,27 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>2017-02-08-v186_30b_H2</t>
+  </si>
+  <si>
+    <t>021117</t>
+  </si>
+  <si>
+    <t>h2-q-temp_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-h2-temp</t>
+  </si>
+  <si>
+    <t>021317</t>
+  </si>
+  <si>
+    <t>h2-q-600-300_day-01.csv</t>
+  </si>
+  <si>
+    <t>condition 600-300</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2146,47 +2167,135 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>13</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>14</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>1</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>0.86</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>1.5940000000000001</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>185</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="4" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M24" s="4">
+        <v>187</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M25" s="4">
+        <v>187</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>reactor</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>condition 600-300</t>
+  </si>
+  <si>
+    <t>021417</t>
+  </si>
+  <si>
+    <t>h2-q-200-400_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2-q1-200-400_day-01.csv</t>
+  </si>
+  <si>
+    <t>021517</t>
   </si>
 </sst>
 </file>
@@ -464,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +654,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -805,7 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -814,6 +832,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1404,46 +1428,46 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>23</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="K6" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M6" s="10">
         <v>180</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1627,46 +1651,46 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="11">
         <v>7</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
         <v>5</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M11" s="13">
         <v>182</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1803,46 +1827,46 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="8">
         <v>4</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M15" s="10">
         <v>183</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="8" t="s">
         <v>58</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -2167,90 +2191,90 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
         <v>13</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="8">
         <v>14</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M23" s="4">
+      <c r="K23" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M23" s="8">
         <v>185</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="11">
         <v>6</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="11">
         <v>8</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M24" s="4">
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M24" s="11">
         <v>187</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2296,6 +2320,94 @@
       </c>
       <c r="N25" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>187</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="8">
+        <v>14</v>
+      </c>
+      <c r="F27" s="8">
+        <v>16</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M27" s="8">
+        <v>187</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>reactor</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>021517</t>
+  </si>
+  <si>
+    <t>022717</t>
+  </si>
+  <si>
+    <t>core camoe out today, it has been tored apart.</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2410,6 +2416,53 @@
         <v>89</v>
       </c>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="8">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8">
+        <v>33</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M28" s="8">
+        <v>187</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matlab/ipb1-30.xlsx
+++ b/matlab/ipb1-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
   <si>
     <t>reactor</t>
   </si>
@@ -181,18 +181,12 @@
     <t>2017-01-27-v183_30b_He</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>012717</t>
   </si>
   <si>
     <t>ipb1-he-q-temp_day-01.csv</t>
   </si>
   <si>
-    <t>200-400 qpow step runs</t>
-  </si>
-  <si>
     <t>test_day-01.csv</t>
   </si>
   <si>
@@ -205,12 +199,6 @@
     <t>200-350 qpow step runs-eliminate 350c</t>
   </si>
   <si>
-    <t xml:space="preserve"> the same run and also the same result as 110916 </t>
-  </si>
-  <si>
-    <t>the same run and also the same result as 011817</t>
-  </si>
-  <si>
     <t>2017-01-30-v184_30b_He</t>
   </si>
   <si>
@@ -220,12 +208,6 @@
     <t>ipb1-he_DC-200-300day-01.csv</t>
   </si>
   <si>
-    <t>dc-he-200-300</t>
-  </si>
-  <si>
-    <t>if resistance changes after time period</t>
-  </si>
-  <si>
     <t>013117</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>IPB1-q-ex-480_day-01.csv</t>
   </si>
   <si>
-    <t>get the qkhz</t>
-  </si>
-  <si>
     <t>020717</t>
   </si>
   <si>
@@ -310,7 +289,28 @@
     <t>022717</t>
   </si>
   <si>
-    <t>core camoe out today, it has been tored apart.</t>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>ipb1-30b-h2-dc-calibration_DKF_calibration.05.mat</t>
+  </si>
+  <si>
+    <t>ipb1-30b-he-dc-cali2_DKF_Calibration_01.mat</t>
+  </si>
+  <si>
+    <t>dc-he-150-500c(same run as 110916</t>
+  </si>
+  <si>
+    <t>200-400 qpow step runs (same run and same results as 011817)</t>
+  </si>
+  <si>
+    <t>q-h2-temp (core camoe out today, it has been tored apart.)</t>
+  </si>
+  <si>
+    <t>dc-he-200-300 (check if the run is still same as 110916), it changed quite lot)</t>
+  </si>
+  <si>
+    <t>dc-he-200-300 (verify the resistance changed)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,26 +469,18 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +658,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,21 +821,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,6 +878,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,1279 +1175,1343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M2" s="2">
         <v>174</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M3" s="2">
         <v>174</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>7</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M4" s="2">
         <v>174</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="K5" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M5" s="2">
         <v>174</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="2">
         <v>22</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="2">
         <v>23</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="K6" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M6" s="2">
         <v>180</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="N6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M7" s="2">
         <v>174</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>16</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M8" s="2">
         <v>174</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>48</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>51</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M9" s="2">
         <v>180</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>58</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>63</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M10" s="2">
         <v>180</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="2">
         <v>7</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M11" s="2">
         <v>182</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="N11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>9</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M12" s="2">
         <v>182</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>13</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M13" s="2">
         <v>182</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>17</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M14" s="2">
         <v>182</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M15" s="2">
+        <v>183</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>182</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M17" s="2">
+        <v>182</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>184</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M15" s="10">
-        <v>183</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M19" s="2">
+        <v>184</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M20" s="2">
+        <v>184</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M21" s="2">
+        <v>184</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M16" s="1">
-        <v>182</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M22" s="2">
+        <v>184</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="1">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M17" s="1">
-        <v>182</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M18" s="1">
-        <v>184</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M19" s="1">
-        <v>184</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.86</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>184</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="K23" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M23" s="2">
+        <v>185</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="6">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M24" s="2">
+        <v>187</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
         <v>11</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.86</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M21" s="1">
-        <v>184</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M25" s="2">
+        <v>187</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="1">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M22" s="1">
-        <v>184</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>187</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="8">
-        <v>13</v>
-      </c>
-      <c r="F23" s="8">
+    </row>
+    <row r="27" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2">
         <v>14</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M23" s="8">
-        <v>185</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="F27" s="2">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M27" s="2">
+        <v>187</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="11">
-        <v>6</v>
-      </c>
-      <c r="F24" s="11">
-        <v>8</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="L24" s="11">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M24" s="11">
+      <c r="E28" s="2">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="M28" s="2">
         <v>187</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="4">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M25" s="4">
-        <v>187</v>
-      </c>
-      <c r="N25" s="4" t="s">
+      <c r="N28" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="4">
-        <v>12</v>
-      </c>
-      <c r="F26" s="4">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M26" s="4">
-        <v>187</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="O28" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="8">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8">
-        <v>16</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="L27" s="8">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M27" s="8">
-        <v>187</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="8">
-        <v>30</v>
-      </c>
-      <c r="F28" s="8">
-        <v>33</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="L28" s="8">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="M28" s="8">
-        <v>187</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
